--- a/public/downloads/mau-du-lieu-cong-trinh-sat-lo.xlsx
+++ b/public/downloads/mau-du-lieu-cong-trinh-sat-lo.xlsx
@@ -24,15 +24,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Mã</t>
-  </si>
-  <si>
-    <t>Tọa độ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Tên công trình</t>
+  </si>
+  <si>
+    <t>Loại công trình</t>
+  </si>
+  <si>
+    <t>Cấp độ rủi ro thiên tai</t>
+  </si>
+  <si>
+    <t>Phường/Xã</t>
+  </si>
+  <si>
+    <t>Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Tiến độ thực hiện</t>
+  </si>
+  <si>
+    <t>Năm xây dựng</t>
+  </si>
+  <si>
+    <t>Năm hoàn thành</t>
+  </si>
+  <si>
+    <t>Chiều dài (km)</t>
+  </si>
+  <si>
+    <t>Chiều rộng (m)</t>
+  </si>
+  <si>
+    <t>Quy mô</t>
+  </si>
+  <si>
+    <t>Mức độ ảnh hưởng</t>
+  </si>
+  <si>
+    <t>Toạ độ</t>
+  </si>
+  <si>
+    <t>Tổng mức đầu tư</t>
+  </si>
+  <si>
+    <t>Nguồn vốn</t>
   </si>
 </sst>
 </file>
@@ -68,8 +104,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,26 +393,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>